--- a/Datorama_Domain_Hierarchcial.xlsx
+++ b/Datorama_Domain_Hierarchcial.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\DatoramaMain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\datorama-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DomainDelivery_DomainID" sheetId="3" r:id="rId1"/>
@@ -66,10 +66,10 @@
     <t>total_view_based_conversion</t>
   </si>
   <si>
-    <t>Domain Click Based Conversions</t>
-  </si>
-  <si>
-    <t>Domain View Based Conversions</t>
+    <t>Click Based Conversions</t>
+  </si>
+  <si>
+    <t>View Based Conversions</t>
   </si>
 </sst>
 </file>
@@ -424,19 +424,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -515,19 +515,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
